--- a/src/test/resources/UpdateExample.xlsx
+++ b/src/test/resources/UpdateExample.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Country</t>
   </si>
@@ -89,12 +89,16 @@
   </si>
   <si>
     <t>Niiue</t>
+  </si>
+  <si>
+    <t>Niue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,9 +456,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>

--- a/src/test/resources/UpdateExample.xlsx
+++ b/src/test/resources/UpdateExample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Country</t>
   </si>
